--- a/outputFile/lplm4.xlsx
+++ b/outputFile/lplm4.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,12 +436,7 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>lplm_1</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>lplm_2</t>
+          <t>lplm_only</t>
         </is>
       </c>
     </row>
@@ -451,12 +446,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>[[0.5, 19], [0.55, 12], [0.5294117647058824, 8]]</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>[[0.5365853658536585, 13], [0.5142857142857143, 9], [0.24, 5]]</t>
+          <t>[[0.5531914893617021, 17], [0.6, 11], [0.6875, 4]]</t>
         </is>
       </c>
     </row>
@@ -466,12 +456,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>[[0.5116279069767442, 15], [0.5555555555555555, 9], [0.3870967741935484, 8]]</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>[[0.5641025641025642, 11], [0.45161290322580644, 7], [0.2608695652173913, 3]]</t>
+          <t>[[0.6666666666666667, 9], [0.7272727272727272, 4], [0.6428571428571428, 2]]</t>
         </is>
       </c>
     </row>
@@ -481,12 +466,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>[[0.5116279069767442, 15], [0.5714285714285715, 8], [0.33333333333333337, 8]]</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>[[0.5806451612903226, 5], [0.46153846153846156, 3], [0.1111111111111111, 0]]</t>
+          <t>[[0.6875, 4], [0.7142857142857143, 1], [0.3, 0]]</t>
         </is>
       </c>
     </row>
